--- a/Excel/inventory.xlsx
+++ b/Excel/inventory.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/12b12b08b9581f4a/Desktop/Website_UI/Excel/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="11_61D963F6F613C806C25A842D9BB1D0A27552AE9F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{023F437A-8415-42CE-AE01-2492787BDF5A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="61">
   <si>
     <t>Category</t>
   </si>
@@ -34,6 +28,9 @@
     <t>Model</t>
   </si>
   <si>
+    <t>ProductID</t>
+  </si>
+  <si>
     <t>Project</t>
   </si>
   <si>
@@ -52,73 +49,127 @@
     <t>Drone Equipment</t>
   </si>
   <si>
-    <t>Bipod Controller Holder</t>
-  </si>
-  <si>
-    <t>DGPS Receiver</t>
-  </si>
-  <si>
-    <t>DGPS Battery</t>
-  </si>
-  <si>
-    <t>DGPS Controller</t>
-  </si>
-  <si>
-    <t>Tribrach</t>
-  </si>
-  <si>
-    <t>DGPS Contoller Bag</t>
-  </si>
-  <si>
-    <t>DGPS Extension Rod</t>
-  </si>
-  <si>
-    <t>Tripod</t>
-  </si>
-  <si>
-    <t>DGPS External Power Cable</t>
-  </si>
-  <si>
-    <t>Trimble</t>
-  </si>
-  <si>
-    <t>DD</t>
-  </si>
-  <si>
-    <t>R6</t>
-  </si>
-  <si>
-    <t>TDC6002</t>
-  </si>
-  <si>
-    <t>R10/R12</t>
-  </si>
-  <si>
-    <t>AA</t>
-  </si>
-  <si>
-    <t>BB</t>
-  </si>
-  <si>
-    <t>MA1323A</t>
-  </si>
-  <si>
-    <t>6152x00853</t>
-  </si>
-  <si>
-    <t>T-20-18862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not visible </t>
-  </si>
-  <si>
-    <t>Not Visible</t>
-  </si>
-  <si>
-    <t>CC</t>
-  </si>
-  <si>
-    <t>MA2014A</t>
+    <t>ASD</t>
+  </si>
+  <si>
+    <t>Name1</t>
+  </si>
+  <si>
+    <t>Name2</t>
+  </si>
+  <si>
+    <t>Name3</t>
+  </si>
+  <si>
+    <t>Name4</t>
+  </si>
+  <si>
+    <t>Name5</t>
+  </si>
+  <si>
+    <t>Name6</t>
+  </si>
+  <si>
+    <t>Name7</t>
+  </si>
+  <si>
+    <t>Name8</t>
+  </si>
+  <si>
+    <t>Name9</t>
+  </si>
+  <si>
+    <t>ASDAS</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>Make1</t>
+  </si>
+  <si>
+    <t>Make2</t>
+  </si>
+  <si>
+    <t>Make3</t>
+  </si>
+  <si>
+    <t>Make4</t>
+  </si>
+  <si>
+    <t>Make5</t>
+  </si>
+  <si>
+    <t>Make6</t>
+  </si>
+  <si>
+    <t>Make7</t>
+  </si>
+  <si>
+    <t>Make8</t>
+  </si>
+  <si>
+    <t>Make9</t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>Model1</t>
+  </si>
+  <si>
+    <t>Model2</t>
+  </si>
+  <si>
+    <t>Model3</t>
+  </si>
+  <si>
+    <t>Model4</t>
+  </si>
+  <si>
+    <t>Model5</t>
+  </si>
+  <si>
+    <t>Model6</t>
+  </si>
+  <si>
+    <t>Model7</t>
+  </si>
+  <si>
+    <t>Model8</t>
+  </si>
+  <si>
+    <t>Model9</t>
+  </si>
+  <si>
+    <t>Serial1</t>
+  </si>
+  <si>
+    <t>Serial2</t>
+  </si>
+  <si>
+    <t>Serial3</t>
+  </si>
+  <si>
+    <t>Serial4</t>
+  </si>
+  <si>
+    <t>Serial5</t>
+  </si>
+  <si>
+    <t>Serial6</t>
+  </si>
+  <si>
+    <t>Serial7</t>
+  </si>
+  <si>
+    <t>Serial8</t>
+  </si>
+  <si>
+    <t>Serial9</t>
+  </si>
+  <si>
+    <t>ssdsds</t>
   </si>
   <si>
     <t>SOI TRIPURA</t>
@@ -127,6 +178,12 @@
     <t>SOI ASSAM</t>
   </si>
   <si>
+    <t>ASDSAD</t>
+  </si>
+  <si>
+    <t>Umar</t>
+  </si>
+  <si>
     <t>Not Ok</t>
   </si>
   <si>
@@ -139,20 +196,14 @@
     <t>OK</t>
   </si>
   <si>
-    <t>ProductID</t>
-  </si>
-  <si>
-    <t>Abbas</t>
-  </si>
-  <si>
-    <t>Umar</t>
+    <t>Good</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,14 +266,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -269,7 +312,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -301,27 +344,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -353,24 +378,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -546,16 +553,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -569,276 +574,310 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
         <v>41</v>
       </c>
-      <c r="H2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="E10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6">
-        <v>58002007</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" t="s">
-        <v>38</v>
+      <c r="H13" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
